--- a/data/SuppTable4__Zim_AmpliSeq_results.xlsx
+++ b/data/SuppTable4__Zim_AmpliSeq_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mb29/Papers/AmpliSeq_Treponema_paper_2024/Github/TP-Phylo-Plex_paper_2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DB320-5F34-0149-9E6D-B8BD8E3BD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207518E-1343-5E4C-9202-6B8F7CC1340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33060" yWindow="3620" windowWidth="27240" windowHeight="15940" xr2:uid="{7F4C3CC6-8164-4E43-8952-F13CBADACADE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" xr2:uid="{7F4C3CC6-8164-4E43-8952-F13CBADACADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="80">
   <si>
     <t>Sample Name</t>
   </si>
@@ -222,6 +222,60 @@
   </si>
   <si>
     <t>mz454b</t>
+  </si>
+  <si>
+    <t>ERR14364160</t>
+  </si>
+  <si>
+    <t>ERR14364161</t>
+  </si>
+  <si>
+    <t>ERR14364162</t>
+  </si>
+  <si>
+    <t>ERR14364163</t>
+  </si>
+  <si>
+    <t>ERR14364164</t>
+  </si>
+  <si>
+    <t>ERR14364165</t>
+  </si>
+  <si>
+    <t>ERR14364166</t>
+  </si>
+  <si>
+    <t>ERR14364167</t>
+  </si>
+  <si>
+    <t>ERR14364168</t>
+  </si>
+  <si>
+    <t>ERR14251070</t>
+  </si>
+  <si>
+    <t>ERR14364169</t>
+  </si>
+  <si>
+    <t>ERR14364170</t>
+  </si>
+  <si>
+    <t>ERR14364171</t>
+  </si>
+  <si>
+    <t>ERR14364172</t>
+  </si>
+  <si>
+    <t>ERR14364173</t>
+  </si>
+  <si>
+    <t>ERR14364174</t>
+  </si>
+  <si>
+    <t>ERR14364175</t>
+  </si>
+  <si>
+    <t>ERR14364176</t>
   </si>
 </sst>
 </file>
@@ -633,7 +687,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,7 +821,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -823,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -879,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -935,7 +989,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -991,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1047,7 +1101,7 @@
         <v>17</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1103,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1159,7 +1213,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1215,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1271,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1327,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1383,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1439,7 +1493,7 @@
         <v>17</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1495,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1551,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1607,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1663,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1719,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
